--- a/data/trans_orig/P6713-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>11267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6016</v>
+        <v>5652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20662</v>
+        <v>20058</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06191263708619001</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03305802450223842</v>
+        <v>0.03105527513130423</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1135365944225611</v>
+        <v>0.1102172482498636</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -763,19 +763,19 @@
         <v>12063</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5971</v>
+        <v>6155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20307</v>
+        <v>20324</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08795868347770437</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04354261550760123</v>
+        <v>0.04488296946540946</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1480791427482092</v>
+        <v>0.1482016111350714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -784,19 +784,19 @@
         <v>23330</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14668</v>
+        <v>15367</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35375</v>
+        <v>35760</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07310551523889382</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04596225233728847</v>
+        <v>0.04815404775933628</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1108491769454125</v>
+        <v>0.1120560977008023</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>10976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5569</v>
+        <v>5527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18848</v>
+        <v>18828</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06031090069269844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03059844225112459</v>
+        <v>0.03036939353052215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1035699321520216</v>
+        <v>0.1034561174642146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -834,19 +834,19 @@
         <v>8813</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4404</v>
+        <v>3655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16774</v>
+        <v>15367</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06426191284090543</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03211371868553024</v>
+        <v>0.02665027752100537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1223141966872262</v>
+        <v>0.1120507636242971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -855,19 +855,19 @@
         <v>19789</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12529</v>
+        <v>12040</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31368</v>
+        <v>30089</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06200878592602663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03925892039526509</v>
+        <v>0.03772649915575453</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09829489214854276</v>
+        <v>0.09428521327841631</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>33359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23586</v>
+        <v>23551</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44571</v>
+        <v>44928</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.183302950134203</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1296038729940745</v>
+        <v>0.1294094841761108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2449154909211387</v>
+        <v>0.2468765782077299</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -905,19 +905,19 @@
         <v>35896</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25826</v>
+        <v>26053</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47580</v>
+        <v>47134</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2617475169905922</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1883207734802993</v>
+        <v>0.1899735517849101</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3469473889806248</v>
+        <v>0.3436983620421516</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -926,19 +926,19 @@
         <v>69255</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54614</v>
+        <v>54717</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85151</v>
+        <v>85707</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2170132670616598</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1711351598385615</v>
+        <v>0.1714594229577027</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2668263527738475</v>
+        <v>0.2685691847850337</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>39573</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28318</v>
+        <v>28800</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49857</v>
+        <v>51914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2174473227548357</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1556044492387434</v>
+        <v>0.1582546724064734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2739580611620046</v>
+        <v>0.2852630092229375</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -976,19 +976,19 @@
         <v>14405</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8371</v>
+        <v>8384</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23271</v>
+        <v>22570</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.105036803433772</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0610407087442104</v>
+        <v>0.0611343187389336</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1696908805258247</v>
+        <v>0.1645791832642108</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -997,19 +997,19 @@
         <v>53977</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40820</v>
+        <v>40748</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66833</v>
+        <v>67318</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1691406727961404</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1279131627398078</v>
+        <v>0.1276850066091611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2094239688561635</v>
+        <v>0.2109458015976987</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>86813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>73387</v>
+        <v>73355</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99172</v>
+        <v>100832</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4770261893320729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4032522508780207</v>
+        <v>0.4030800097841623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5449408708630132</v>
+        <v>0.5540590369947104</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -1047,19 +1047,19 @@
         <v>65963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53222</v>
+        <v>54696</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77806</v>
+        <v>78340</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4809950832570261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3880908445803199</v>
+        <v>0.3988388486606371</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5673511302362172</v>
+        <v>0.5712429443251683</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -1068,19 +1068,19 @@
         <v>152776</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136241</v>
+        <v>136330</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>172444</v>
+        <v>172952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4787317589772794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4269189354622059</v>
+        <v>0.4271973929927093</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.540363233694981</v>
+        <v>0.5419548693069872</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>42226</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30971</v>
+        <v>30197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56643</v>
+        <v>57112</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04638476513062029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0340209727845705</v>
+        <v>0.03317069420569619</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06222150084124162</v>
+        <v>0.06273696288374972</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1193,19 +1193,19 @@
         <v>42120</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31287</v>
+        <v>31669</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56241</v>
+        <v>55265</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07409871588287729</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05504091204476357</v>
+        <v>0.05571394319215252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09894152353601984</v>
+        <v>0.09722330714680119</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -1214,19 +1214,19 @@
         <v>84346</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68863</v>
+        <v>67968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105157</v>
+        <v>105831</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05703782150411946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04656767091693802</v>
+        <v>0.04596256493157476</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07111133540330331</v>
+        <v>0.07156694837205189</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>50008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37645</v>
+        <v>37534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66905</v>
+        <v>64997</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05493338167011075</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04135239932412425</v>
+        <v>0.04123117996967623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07349407927728244</v>
+        <v>0.07139912824042211</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -1264,19 +1264,19 @@
         <v>44501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32103</v>
+        <v>33330</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>59909</v>
+        <v>60418</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07828835981009759</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05647682095700524</v>
+        <v>0.05863576016401711</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1053939433432402</v>
+        <v>0.1062887832788584</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>86</v>
@@ -1285,19 +1285,19 @@
         <v>94509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76829</v>
+        <v>77387</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>116597</v>
+        <v>116650</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06391087827285903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05195477132107851</v>
+        <v>0.05233185001102367</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07884732588088215</v>
+        <v>0.07888304487179089</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>201539</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>176898</v>
+        <v>177875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>226577</v>
+        <v>229854</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2213881641078015</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1943203544949952</v>
+        <v>0.1953941391306367</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2488926746975542</v>
+        <v>0.2524928148528503</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>125</v>
@@ -1335,19 +1335,19 @@
         <v>133443</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>112521</v>
+        <v>114078</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>153495</v>
+        <v>157275</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2347569020138042</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1979508629957019</v>
+        <v>0.2006905546912657</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2700335671771529</v>
+        <v>0.2766845069741371</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>319</v>
@@ -1356,19 +1356,19 @@
         <v>334981</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>302496</v>
+        <v>302435</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>370594</v>
+        <v>367241</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2265270170930109</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2045592552178093</v>
+        <v>0.2045178203268428</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2506098376836037</v>
+        <v>0.248342034789477</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>218735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>194287</v>
+        <v>191170</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>244636</v>
+        <v>243518</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2402778472034635</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2134220737655549</v>
+        <v>0.209998426694608</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.268729962988981</v>
+        <v>0.2675022149945992</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -1406,19 +1406,19 @@
         <v>134488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115665</v>
+        <v>113508</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154486</v>
+        <v>155785</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2365951190077506</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2034818798936933</v>
+        <v>0.1996868382910836</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2717770661290898</v>
+        <v>0.2740618766192666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>337</v>
@@ -1427,19 +1427,19 @@
         <v>353222</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>318748</v>
+        <v>320862</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>386182</v>
+        <v>387782</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2388622312406614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2155495196951284</v>
+        <v>0.2169789138102378</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2611507782392247</v>
+        <v>0.2622326767607266</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>397833</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>368352</v>
+        <v>367270</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>433541</v>
+        <v>429408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.437015841888004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4046308611200984</v>
+        <v>0.4034431898537145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4762406544261844</v>
+        <v>0.4717009763323523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>202</v>
@@ -1477,19 +1477,19 @@
         <v>213878</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>189841</v>
+        <v>186689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>236634</v>
+        <v>236216</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3762609032854703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3339755934164387</v>
+        <v>0.3284299146025997</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4162945197664851</v>
+        <v>0.415559480126302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>573</v>
@@ -1498,19 +1498,19 @@
         <v>611711</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>573995</v>
+        <v>574599</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>652194</v>
+        <v>651359</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4136620518893492</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3881573872959532</v>
+        <v>0.3885655360854492</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4410387641710203</v>
+        <v>0.4404739504415664</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>4334</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12510</v>
+        <v>12008</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01374852316389716</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002840610061458559</v>
+        <v>0.002881897171208573</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03968793978486258</v>
+        <v>0.03809512168140682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1623,19 +1623,19 @@
         <v>5167</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2020</v>
+        <v>1979</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12005</v>
+        <v>11409</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02199865795325407</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008598864960202094</v>
+        <v>0.00842640343943688</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05110585476258949</v>
+        <v>0.04856929841023592</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1644,19 +1644,19 @@
         <v>9501</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4426</v>
+        <v>4325</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20934</v>
+        <v>17072</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01727139463450248</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00804596099970253</v>
+        <v>0.007862806495080372</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03805538826965624</v>
+        <v>0.03103500757103169</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>14695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8101</v>
+        <v>7218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26727</v>
+        <v>25517</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04662003191396442</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0256999984445013</v>
+        <v>0.022899060082132</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08479181185086959</v>
+        <v>0.08095345840720064</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1694,19 +1694,19 @@
         <v>10453</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4942</v>
+        <v>4898</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19715</v>
+        <v>19084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04450037472125895</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02103997064536996</v>
+        <v>0.02085265033243015</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08392975609260497</v>
+        <v>0.08124268388592985</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1715,19 +1715,19 @@
         <v>25148</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16106</v>
+        <v>14780</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37430</v>
+        <v>38848</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04571492187124383</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02927884683375977</v>
+        <v>0.02686797202140442</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06804164870782906</v>
+        <v>0.0706201779615335</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>50579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37756</v>
+        <v>38512</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>64932</v>
+        <v>66294</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1604642035525524</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.119783923788513</v>
+        <v>0.1221829274615665</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2059997467231121</v>
+        <v>0.2103203265359835</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -1765,19 +1765,19 @@
         <v>28361</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18596</v>
+        <v>19853</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40676</v>
+        <v>41653</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1207371338198052</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07916822106780409</v>
+        <v>0.08451869286398576</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1731651194096422</v>
+        <v>0.1773239593949643</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>70</v>
@@ -1786,19 +1786,19 @@
         <v>78940</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>62936</v>
+        <v>61663</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>99515</v>
+        <v>97257</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1435004370026058</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.114409148657322</v>
+        <v>0.1120941731576339</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1809034581357776</v>
+        <v>0.1767991279139164</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>65503</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50069</v>
+        <v>50938</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81214</v>
+        <v>81447</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2078121557173478</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1588468161736221</v>
+        <v>0.1616029668175529</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2576551357722937</v>
+        <v>0.258396692406435</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -1836,19 +1836,19 @@
         <v>48858</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36280</v>
+        <v>35650</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63056</v>
+        <v>64502</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2079985094708385</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1544522126264624</v>
+        <v>0.1517683420480703</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2684428759041868</v>
+        <v>0.2745970578096816</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>102</v>
@@ -1857,19 +1857,19 @@
         <v>114361</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95110</v>
+        <v>94585</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>137320</v>
+        <v>136338</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2078917302138105</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1728954765078496</v>
+        <v>0.1719413400600034</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2496270938276439</v>
+        <v>0.2478420462368705</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>180093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>161126</v>
+        <v>161946</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197242</v>
+        <v>199936</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5713550856522382</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5111826113272246</v>
+        <v>0.513783637415629</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6257618453595646</v>
+        <v>0.6343073059228681</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>130</v>
@@ -1907,19 +1907,19 @@
         <v>142058</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126646</v>
+        <v>125865</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159654</v>
+        <v>158738</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6047653240348433</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5391538081397682</v>
+        <v>0.53583143160269</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6796757867601517</v>
+        <v>0.6757766045337941</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>294</v>
@@ -1928,19 +1928,19 @@
         <v>322150</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>297094</v>
+        <v>296473</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>346912</v>
+        <v>345812</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5856215162778373</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5400732452421221</v>
+        <v>0.5389447298248232</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6306352782777093</v>
+        <v>0.6286351018113541</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>57827</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44886</v>
+        <v>42778</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75212</v>
+        <v>75808</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04108386591035189</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03188970088194527</v>
+        <v>0.03039211990104614</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05343528457167858</v>
+        <v>0.0538586504064404</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -2053,19 +2053,19 @@
         <v>59350</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45363</v>
+        <v>44861</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76024</v>
+        <v>75950</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06310692780679905</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04823422988954015</v>
+        <v>0.04770127609820089</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0808365358389662</v>
+        <v>0.08075841969032539</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>108</v>
@@ -2074,19 +2074,19 @@
         <v>117177</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96778</v>
+        <v>96369</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139370</v>
+        <v>140769</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04990497637993641</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0412174263495169</v>
+        <v>0.04104318757891477</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05935697408858815</v>
+        <v>0.05995275631030502</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>75679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>58484</v>
+        <v>59010</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>96504</v>
+        <v>93958</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05376697268497632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04155111520337286</v>
+        <v>0.04192433092357312</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06856249322756572</v>
+        <v>0.06675374552143901</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>57</v>
@@ -2124,19 +2124,19 @@
         <v>63767</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48511</v>
+        <v>47746</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>81235</v>
+        <v>81494</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06780389712742388</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05158198730529413</v>
+        <v>0.05076801017561095</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08637721053905752</v>
+        <v>0.08665249248649304</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>125</v>
@@ -2145,19 +2145,19 @@
         <v>139446</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>116316</v>
+        <v>118251</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>165192</v>
+        <v>167196</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05938931810371287</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04953850035188647</v>
+        <v>0.05036263035221946</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0703546858772609</v>
+        <v>0.07120816131104193</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>285476</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>255213</v>
+        <v>253818</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>316670</v>
+        <v>314969</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2028205883621137</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1813202301202116</v>
+        <v>0.1803288768902198</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2249832315977792</v>
+        <v>0.2237743923168094</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>183</v>
@@ -2195,19 +2195,19 @@
         <v>197699</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>174095</v>
+        <v>173933</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>226410</v>
+        <v>223072</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2102143534290298</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1851163411964642</v>
+        <v>0.1849433018600063</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2407422483925687</v>
+        <v>0.2371935359908023</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>453</v>
@@ -2216,19 +2216,19 @@
         <v>483175</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>446177</v>
+        <v>443366</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>526873</v>
+        <v>524926</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2057820847583956</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1900246562718444</v>
+        <v>0.1888276984656884</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2243927646228931</v>
+        <v>0.2235636782196465</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>323810</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>292178</v>
+        <v>290754</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>357363</v>
+        <v>355961</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2300555879764867</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2075822700040006</v>
+        <v>0.2065702377649204</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2538936969113047</v>
+        <v>0.2528977315195594</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>180</v>
@@ -2266,19 +2266,19 @@
         <v>197750</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>172697</v>
+        <v>173517</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223799</v>
+        <v>224279</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2102686910836827</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1836296555391545</v>
+        <v>0.1845016322707432</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2379666861087113</v>
+        <v>0.2384768900337913</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>491</v>
@@ -2287,19 +2287,19 @@
         <v>521560</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>478545</v>
+        <v>481112</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>563645</v>
+        <v>565003</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2221301503528536</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.203810187439111</v>
+        <v>0.2049035835545631</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2400538836175179</v>
+        <v>0.2406320750298361</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>664738</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>624291</v>
+        <v>628642</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>704734</v>
+        <v>703658</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4722729850660713</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4435370973571753</v>
+        <v>0.4466280212892645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5006885260632722</v>
+        <v>0.4999241966732824</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>393</v>
@@ -2337,19 +2337,19 @@
         <v>421898</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>391366</v>
+        <v>390523</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>456201</v>
+        <v>455635</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4486061305530645</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4161408687110857</v>
+        <v>0.415244683539517</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4850797371915052</v>
+        <v>0.4844781975575759</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1013</v>
@@ -2358,19 +2358,19 @@
         <v>1086636</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1040191</v>
+        <v>1037377</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1139853</v>
+        <v>1136192</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4627934704051014</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4430127361621776</v>
+        <v>0.4418141871513851</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4854581846436292</v>
+        <v>0.4838988967535599</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>13116</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7449</v>
+        <v>6707</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22196</v>
+        <v>20473</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09282311284916443</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05271968571261663</v>
+        <v>0.04746928621331854</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1570834427371969</v>
+        <v>0.144890795938878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2722,19 +2722,19 @@
         <v>7131</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3204</v>
+        <v>3045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13523</v>
+        <v>13290</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1031527167746171</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04634470525457966</v>
+        <v>0.04405579325725688</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1956185076978525</v>
+        <v>0.1922528945858744</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2743,19 +2743,19 @@
         <v>20247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12739</v>
+        <v>12625</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30287</v>
+        <v>29792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09621653443167542</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06054094624295325</v>
+        <v>0.05999540979815517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1439330634441548</v>
+        <v>0.1415808172217817</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>22021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14162</v>
+        <v>13946</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32765</v>
+        <v>32179</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1558490292441561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1002268776992068</v>
+        <v>0.09869496876446292</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2318818653137687</v>
+        <v>0.2277403134353091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -2793,19 +2793,19 @@
         <v>16662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10649</v>
+        <v>10561</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24501</v>
+        <v>24429</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2410332259788523</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1540423478226544</v>
+        <v>0.1527707575697037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3544230709882493</v>
+        <v>0.3533887009602539</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -2814,19 +2814,19 @@
         <v>38683</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27761</v>
+        <v>28520</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51298</v>
+        <v>51905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1838332475912029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1319274590027278</v>
+        <v>0.1355334001143381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.243780691982375</v>
+        <v>0.2466669881842498</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>41875</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31811</v>
+        <v>31467</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53051</v>
+        <v>52495</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2963572630301418</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2251291027101046</v>
+        <v>0.222697081577649</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3754548567479098</v>
+        <v>0.3715145853928832</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -2864,19 +2864,19 @@
         <v>18002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11963</v>
+        <v>11682</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25204</v>
+        <v>26022</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2604143282743885</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1730589907746408</v>
+        <v>0.1689909128244121</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3646040334853623</v>
+        <v>0.3764264812285817</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -2885,19 +2885,19 @@
         <v>59877</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46796</v>
+        <v>47432</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74954</v>
+        <v>73760</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2845494985292766</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2223881673502638</v>
+        <v>0.2254079137980781</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.35619835568643</v>
+        <v>0.3505268493331761</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>30745</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21838</v>
+        <v>22271</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40973</v>
+        <v>42022</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2175897694803598</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1545541230038276</v>
+        <v>0.15761695953505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2899734362825809</v>
+        <v>0.2973998064423859</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2935,19 +2935,19 @@
         <v>14865</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8724</v>
+        <v>8798</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22525</v>
+        <v>22686</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2150340418588285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1262042274721101</v>
+        <v>0.1272750398577397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3258405024305074</v>
+        <v>0.3281803314226032</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -2956,19 +2956,19 @@
         <v>45610</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34810</v>
+        <v>34379</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60081</v>
+        <v>57443</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2167501766622311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1654265512121799</v>
+        <v>0.1633750975222267</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2855218084194303</v>
+        <v>0.2729813674149497</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>33542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24265</v>
+        <v>23644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44380</v>
+        <v>44846</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2373808253961779</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1717268551130968</v>
+        <v>0.1673347436484622</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3140846014127806</v>
+        <v>0.3173803843972622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -3006,19 +3006,19 @@
         <v>12468</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6980</v>
+        <v>7304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19683</v>
+        <v>20557</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1803656871133136</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1009672556432154</v>
+        <v>0.105666060949945</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2847323264221426</v>
+        <v>0.2973763178487263</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>43</v>
@@ -3027,19 +3027,19 @@
         <v>46010</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34283</v>
+        <v>35081</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59200</v>
+        <v>59718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2186505427856139</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1629211818857167</v>
+        <v>0.1667156428043175</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2813304144938373</v>
+        <v>0.2837936479077511</v>
       </c>
     </row>
     <row r="9">
@@ -3131,19 +3131,19 @@
         <v>63055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48397</v>
+        <v>47555</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79297</v>
+        <v>79790</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06830062969764532</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05242283264008546</v>
+        <v>0.05151081340126124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08589341801319338</v>
+        <v>0.0864273588204402</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -3152,19 +3152,19 @@
         <v>71386</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56955</v>
+        <v>57311</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89282</v>
+        <v>90419</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1097331216400947</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0875494068232394</v>
+        <v>0.08809727291351513</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.137242491196196</v>
+        <v>0.1389896447802093</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -3173,19 +3173,19 @@
         <v>134441</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113030</v>
+        <v>111926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157593</v>
+        <v>158080</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08542770000443978</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07182210861667859</v>
+        <v>0.07112111493103301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1001391165365777</v>
+        <v>0.1004484573899305</v>
       </c>
     </row>
     <row r="11">
@@ -3202,19 +3202,19 @@
         <v>95578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78585</v>
+        <v>78645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115392</v>
+        <v>113685</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1035293516813381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08512230749338297</v>
+        <v>0.08518699295988827</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1249908533851191</v>
+        <v>0.123142181625343</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -3223,19 +3223,19 @@
         <v>91872</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75692</v>
+        <v>75319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>111620</v>
+        <v>110602</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.141223989999663</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1163523274666554</v>
+        <v>0.1157792190060778</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1715800333334342</v>
+        <v>0.170015349288144</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>184</v>
@@ -3244,19 +3244,19 @@
         <v>187451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>160123</v>
+        <v>164310</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>213996</v>
+        <v>213816</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1191112945092976</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1017462185612795</v>
+        <v>0.1044071802548674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1359785309722229</v>
+        <v>0.1358642152132173</v>
       </c>
     </row>
     <row r="12">
@@ -3273,19 +3273,19 @@
         <v>242383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>215787</v>
+        <v>216893</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>269895</v>
+        <v>273505</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2625462293205567</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2337383241452406</v>
+        <v>0.2349358338120158</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2923469466821334</v>
+        <v>0.2962573404684357</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -3294,19 +3294,19 @@
         <v>152316</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>131111</v>
+        <v>130137</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>176033</v>
+        <v>175963</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2341360422833539</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2015409861533272</v>
+        <v>0.200044223030759</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2705940142796256</v>
+        <v>0.2704870604395467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>372</v>
@@ -3315,19 +3315,19 @@
         <v>394699</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>364672</v>
+        <v>362365</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>437476</v>
+        <v>430693</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2508022272583291</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2317223825385537</v>
+        <v>0.2302565689306016</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.277984117450717</v>
+        <v>0.2736737116186844</v>
       </c>
     </row>
     <row r="13">
@@ -3344,19 +3344,19 @@
         <v>256064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>227595</v>
+        <v>230874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>285562</v>
+        <v>285977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2773651599574649</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2465281877562941</v>
+        <v>0.2500799911510881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3093167587486824</v>
+        <v>0.3097665735537001</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>183</v>
@@ -3365,19 +3365,19 @@
         <v>186272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>162132</v>
+        <v>164516</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>209789</v>
+        <v>212882</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2863327616728912</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2492253525495676</v>
+        <v>0.252889976492929</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3224823385556955</v>
+        <v>0.3272367736264796</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>426</v>
@@ -3386,19 +3386,19 @@
         <v>442336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>405819</v>
+        <v>402100</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>476713</v>
+        <v>477695</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2810721236920328</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2578685570620294</v>
+        <v>0.2555053665406796</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3029162545307471</v>
+        <v>0.3035400311138433</v>
       </c>
     </row>
     <row r="14">
@@ -3415,19 +3415,19 @@
         <v>266121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>238662</v>
+        <v>237429</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>294547</v>
+        <v>295044</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.288258629342995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2585159737871896</v>
+        <v>0.25718052230415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3190501989374127</v>
+        <v>0.3195884895099977</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -3436,19 +3436,19 @@
         <v>148697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128093</v>
+        <v>127568</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>170339</v>
+        <v>172240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2285740844039972</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1969017890577399</v>
+        <v>0.1960939898700851</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2618413087860141</v>
+        <v>0.264762919110372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>390</v>
@@ -3457,19 +3457,19 @@
         <v>414818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>379514</v>
+        <v>381144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>451900</v>
+        <v>452979</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2635866545359007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2411533243964377</v>
+        <v>0.2421892788625318</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2871495924427737</v>
+        <v>0.2878350164231355</v>
       </c>
     </row>
     <row r="15">
@@ -3561,19 +3561,19 @@
         <v>5352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1847</v>
+        <v>1835</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12135</v>
+        <v>12818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0153587326454699</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005299975256340923</v>
+        <v>0.005264995676153713</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03482769982682953</v>
+        <v>0.03678640889103665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3582,19 +3582,19 @@
         <v>11140</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5228</v>
+        <v>5144</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19821</v>
+        <v>20657</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03611654278826009</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01695061975766095</v>
+        <v>0.01667649062903082</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06426092415619736</v>
+        <v>0.06696976142444359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3603,19 +3603,19 @@
         <v>16492</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9453</v>
+        <v>9774</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27037</v>
+        <v>27827</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02510587528945247</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.014390874623814</v>
+        <v>0.01487919339465059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04115939203288493</v>
+        <v>0.04236109772943147</v>
       </c>
     </row>
     <row r="17">
@@ -3632,19 +3632,19 @@
         <v>17991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10095</v>
+        <v>10930</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27290</v>
+        <v>29248</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05163336343938184</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02897229498418342</v>
+        <v>0.03136879175293972</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07832151152418403</v>
+        <v>0.08393895096815526</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -3653,19 +3653,19 @@
         <v>19090</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11828</v>
+        <v>12674</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29683</v>
+        <v>29738</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06189060922956322</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03834608230265826</v>
+        <v>0.04109020178140826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0962333935170001</v>
+        <v>0.09640918892420913</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -3674,19 +3674,19 @@
         <v>37081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26324</v>
+        <v>25976</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50988</v>
+        <v>50214</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05644980781205635</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04007374867171138</v>
+        <v>0.0395435631684301</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07762038509679224</v>
+        <v>0.07644251309009327</v>
       </c>
     </row>
     <row r="18">
@@ -3703,19 +3703,19 @@
         <v>72147</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>57572</v>
+        <v>55702</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>91339</v>
+        <v>88727</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2070582309332251</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1652298310676365</v>
+        <v>0.1598608101140806</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2621383163678404</v>
+        <v>0.2546428719696742</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>58</v>
@@ -3724,19 +3724,19 @@
         <v>57229</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44686</v>
+        <v>43957</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72445</v>
+        <v>70175</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1855351210473945</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1448699261484015</v>
+        <v>0.1425091877751788</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2348642675901611</v>
+        <v>0.2275052006994185</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>122</v>
@@ -3745,19 +3745,19 @@
         <v>129376</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>109071</v>
+        <v>109391</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>154662</v>
+        <v>151030</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1969517302592045</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1660410142268407</v>
+        <v>0.1665279215576269</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2354447336860645</v>
+        <v>0.2299166830859468</v>
       </c>
     </row>
     <row r="19">
@@ -3774,19 +3774,19 @@
         <v>74638</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60562</v>
+        <v>59731</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92502</v>
+        <v>91881</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2142082400536641</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1738090190429181</v>
+        <v>0.1714238928102945</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2654771727964458</v>
+        <v>0.263694409323121</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -3795,19 +3795,19 @@
         <v>71243</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57992</v>
+        <v>58989</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88942</v>
+        <v>88409</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2309688807393828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1880103605427453</v>
+        <v>0.1912414798494474</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2883471616388912</v>
+        <v>0.286620959672843</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -3816,19 +3816,19 @@
         <v>145881</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>124603</v>
+        <v>125034</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>168699</v>
+        <v>167612</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2220784515280176</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1896863452184278</v>
+        <v>0.1903416010648099</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2568148617362501</v>
+        <v>0.2551590894591648</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>178310</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157482</v>
+        <v>159066</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196848</v>
+        <v>197406</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.511741432928259</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4519664551531655</v>
+        <v>0.456510314277801</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5649441870678236</v>
+        <v>0.566546413894764</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>143</v>
@@ -3866,19 +3866,19 @@
         <v>149750</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>131316</v>
+        <v>132016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>167094</v>
+        <v>166059</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4854888461953993</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4257251747835571</v>
+        <v>0.4279932048211234</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5417173403574972</v>
+        <v>0.5383595743901711</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>308</v>
@@ -3887,19 +3887,19 @@
         <v>328061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>298479</v>
+        <v>300934</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>352688</v>
+        <v>354169</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4994141351112691</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.454381834575848</v>
+        <v>0.458119381064177</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5369050377989946</v>
+        <v>0.5391590060691219</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>81523</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65180</v>
+        <v>64725</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101527</v>
+        <v>100436</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05769721010149485</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04613081066668029</v>
+        <v>0.04580867073505383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07185531365475227</v>
+        <v>0.07108320872868647</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -4012,19 +4012,19 @@
         <v>89657</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73260</v>
+        <v>71457</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>109670</v>
+        <v>108164</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08720457283410726</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07125584519307095</v>
+        <v>0.06950190228635776</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1066696822755941</v>
+        <v>0.1052048853785337</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>160</v>
@@ -4033,19 +4033,19 @@
         <v>171180</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>146808</v>
+        <v>146438</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>198809</v>
+        <v>197689</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07012509687044607</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06014102903578526</v>
+        <v>0.059989279804139</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08144358828889203</v>
+        <v>0.08098468813692876</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>135591</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>116533</v>
+        <v>114348</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161960</v>
+        <v>158046</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09596367669568337</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08247535281923586</v>
+        <v>0.08092892538993646</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1146266373912759</v>
+        <v>0.1118562429598053</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>129</v>
@@ -4083,19 +4083,19 @@
         <v>127625</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>107850</v>
+        <v>109274</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>150926</v>
+        <v>151282</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1241336601751394</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1048992830119408</v>
+        <v>0.1062846272324458</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1467973073956313</v>
+        <v>0.1471436691725548</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>257</v>
@@ -4104,19 +4104,19 @@
         <v>263216</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>232278</v>
+        <v>235070</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>295367</v>
+        <v>292823</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1078282871706471</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0951546427581758</v>
+        <v>0.09629826668432694</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1209992275851243</v>
+        <v>0.1199572202649914</v>
       </c>
     </row>
     <row r="24">
@@ -4133,19 +4133,19 @@
         <v>356405</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>322782</v>
+        <v>323623</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>390534</v>
+        <v>390602</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2522438154855426</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2284473313625965</v>
+        <v>0.2290429537210216</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.276398458223119</v>
+        <v>0.2764465788920569</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>224</v>
@@ -4154,19 +4154,19 @@
         <v>227547</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>202558</v>
+        <v>200445</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>257743</v>
+        <v>252640</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.221321901732369</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1970168442724753</v>
+        <v>0.194961848004692</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2506926342701887</v>
+        <v>0.2457288342926113</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>551</v>
@@ -4175,19 +4175,19 @@
         <v>583951</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>547202</v>
+        <v>542441</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>632533</v>
+        <v>626509</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2392201492810741</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2241654485807691</v>
+        <v>0.2222152580034439</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2591218866563076</v>
+        <v>0.2566539872666203</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4204,19 @@
         <v>361447</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>326508</v>
+        <v>328576</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>393843</v>
+        <v>394900</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2558125751557208</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2310844893454564</v>
+        <v>0.2325484118506504</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2787405222898955</v>
+        <v>0.2794886671393247</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>268</v>
@@ -4225,19 +4225,19 @@
         <v>272380</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>240662</v>
+        <v>244590</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>301208</v>
+        <v>298812</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.264928819994648</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2340786249191902</v>
+        <v>0.2378989940601018</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2929680541873316</v>
+        <v>0.2906376946610821</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>609</v>
@@ -4246,19 +4246,19 @@
         <v>633827</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>589544</v>
+        <v>589578</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>680648</v>
+        <v>680360</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2596521476598065</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2415110113118918</v>
+        <v>0.241525028648466</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2788325031680171</v>
+        <v>0.278714731819133</v>
       </c>
     </row>
     <row r="26">
@@ -4275,19 +4275,19 @@
         <v>477973</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>441629</v>
+        <v>442012</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>516741</v>
+        <v>515760</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3382827225615583</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3125606118055331</v>
+        <v>0.3128315536165076</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3657211505055615</v>
+        <v>0.3650266788635281</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>298</v>
@@ -4296,19 +4296,19 @@
         <v>310916</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>282194</v>
+        <v>281655</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>344465</v>
+        <v>339080</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3024110452637364</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2744745338718209</v>
+        <v>0.2739502795218695</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3350417112976731</v>
+        <v>0.3298045258936428</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>741</v>
@@ -4317,19 +4317,19 @@
         <v>788889</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>746553</v>
+        <v>744291</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>839888</v>
+        <v>840263</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3231743190180262</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3058310869376902</v>
+        <v>0.3049046436907448</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3440665373234315</v>
+        <v>0.3442201447807369</v>
       </c>
     </row>
     <row r="27">
